--- a/Breast cancer Analysis.xlsx
+++ b/Breast cancer Analysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/497afb18eaf570a3/Attachments/Data Analytics Projects/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/497afb18eaf570a3/Attachments/Internship/projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1D293EE-CC74-4258-98FF-458A07EC0AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{E1D293EE-CC74-4258-98FF-458A07EC0AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23F46C33-4173-40EE-863D-8E13D1A02D55}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{B5399A63-7DC7-4FA8-A878-CA22886D1D78}"/>
   </bookViews>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="33" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -1712,7 +1712,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1721,15 +1720,16 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1904,49 +1904,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="diamond"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -1979,7 +1937,6 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2032,49 +1989,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="square"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -2107,7 +2022,6 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2160,49 +2074,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="triangle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -2235,7 +2107,6 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2641,7 +2512,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3074,8 +2944,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -3152,8 +3021,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -3272,6 +3140,216 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -3326,6 +3404,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-0A62-4689-A462-234A9720F910}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3362,6 +3445,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-0A62-4689-A462-234A9720F910}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3398,6 +3486,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-0A62-4689-A462-234A9720F910}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -3700,7 +3793,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-2140-43AD-92AE-89E6B101C354}"/>
+              <c16:uniqueId val="{0000000E-0A62-4689-A462-234A9720F910}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3917,43 +4010,7 @@
           <a:sp3d/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:schemeClr val="lt2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -4030,43 +4087,7 @@
           <a:sp3d/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:schemeClr val="lt2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -4143,43 +4164,7 @@
           <a:sp3d/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:schemeClr val="lt2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -9491,7 +9476,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000017-1629-44F1-BF4C-ECB1A280E3E3}"/>
+              <c16:uniqueId val="{0000000F-852B-49A0-A31B-47998ECEAECA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12961,8 +12946,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="12" name="HER2 status">
@@ -12985,7 +12970,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -13039,8 +13024,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="13" name="Tumour_Stage">
@@ -13063,7 +13048,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -13117,8 +13102,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>57979</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="14" name="Patient_Status">
@@ -13141,7 +13126,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -21538,7 +21523,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B9650119-D483-406E-BEF3-DD0F497697EC}" name="PivotTable5" cacheId="33" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B9650119-D483-406E-BEF3-DD0F497697EC}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="A46:E51" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="23">
     <pivotField dataField="1" showAll="0"/>
@@ -22272,7 +22257,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{934565F5-118B-4768-998C-23C516EC5858}" name="PivotTable4" cacheId="33" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{934565F5-118B-4768-998C-23C516EC5858}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="A27:E33" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="23">
     <pivotField showAll="0"/>
@@ -24378,7 +24363,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A6E70F7B-5A52-408D-90AD-5EA15B544F15}" name="PivotTable3" cacheId="33" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A6E70F7B-5A52-408D-90AD-5EA15B544F15}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
   <location ref="A4:D9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="23">
     <pivotField dataField="1" showAll="0"/>
@@ -26388,7 +26373,7 @@
   <dataFields count="1">
     <dataField name="Count of Patient_ID" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="12">
+  <chartFormats count="18">
     <chartFormat chart="1" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -26541,6 +26526,96 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -61629,10 +61704,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="10" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="13" max="286" width="10.33203125" bestFit="1" customWidth="1"/>
@@ -61666,11 +61742,11 @@
       <c r="A6" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="13">
         <v>12</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6">
+      <c r="C6" s="13"/>
+      <c r="D6" s="13">
         <v>12</v>
       </c>
     </row>
@@ -61678,13 +61754,13 @@
       <c r="A7" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="13">
         <v>179</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="13">
         <v>2</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="13">
         <v>181</v>
       </c>
     </row>
@@ -61692,13 +61768,13 @@
       <c r="A8" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="13">
         <v>139</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="13">
         <v>2</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="13">
         <v>141</v>
       </c>
     </row>
@@ -61706,13 +61782,13 @@
       <c r="A9" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="13">
         <v>330</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="13">
         <v>4</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="13">
         <v>334</v>
       </c>
     </row>
@@ -61745,16 +61821,16 @@
       <c r="A29" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="13">
         <v>22</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="13">
         <v>36</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="13">
         <v>8</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="13">
         <v>66</v>
       </c>
     </row>
@@ -61762,16 +61838,16 @@
       <c r="A30" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="13">
         <v>8</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="13">
         <v>49</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="13">
         <v>39</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="13">
         <v>96</v>
       </c>
     </row>
@@ -61779,16 +61855,16 @@
       <c r="A31" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="6">
-        <v>20</v>
-      </c>
-      <c r="C31" s="6">
+      <c r="B31" s="13">
+        <v>20</v>
+      </c>
+      <c r="C31" s="13">
         <v>61</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="13">
         <v>24</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="13">
         <v>105</v>
       </c>
     </row>
@@ -61796,16 +61872,16 @@
       <c r="A32" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="13">
         <v>14</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="13">
         <v>43</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="13">
         <v>10</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="13">
         <v>67</v>
       </c>
     </row>
@@ -61813,16 +61889,16 @@
       <c r="A33" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="13">
         <v>64</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="13">
         <v>189</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="13">
         <v>81</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="13">
         <v>334</v>
       </c>
     </row>
@@ -61855,16 +61931,16 @@
       <c r="A48" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="13">
         <v>9</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="13">
         <v>139</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="13">
         <v>107</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="13">
         <v>255</v>
       </c>
     </row>
@@ -61872,16 +61948,16 @@
       <c r="A49" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49" s="13">
         <v>3</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="13">
         <v>34</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="13">
         <v>29</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49" s="13">
         <v>66</v>
       </c>
     </row>
@@ -61889,14 +61965,14 @@
       <c r="A50" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6">
+      <c r="B50" s="13"/>
+      <c r="C50" s="13">
         <v>8</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="13">
         <v>5</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="13">
         <v>13</v>
       </c>
     </row>
@@ -61904,16 +61980,16 @@
       <c r="A51" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B51" s="13">
         <v>12</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="13">
         <v>181</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="13">
         <v>141</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="13">
         <v>334</v>
       </c>
     </row>
@@ -61927,7 +62003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4612AB93-ECEE-44FD-850E-B81470BCAF8E}">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="103" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="103" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -61937,109 +62013,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="10"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="12"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="10"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="12"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="10"/>
     </row>
     <row r="4" spans="1:14" ht="61.2" x14ac:dyDescent="1.1000000000000001">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="8"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="7"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
